--- a/Story/5 - Multidimensional Link/My Turn!.xlsx
+++ b/Story/5 - Multidimensional Link/My Turn!.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theda\Documents\GitHub\morimens-volunteer-coordination\Story\5 - Multidimensional Link\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C46B30-AE95-4547-89AA-52437E47A50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F8FB6D-B612-4637-976D-7E4C74391466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{988B98A6-1630-49DD-9555-D5E9D332D8F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{988B98A6-1630-49DD-9555-D5E9D332D8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Traphase" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Traphase!$A$1:$T$225</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6458,9 +6461,6 @@
     <t>逆転のターン</t>
   </si>
   <si>
-    <t>턴 역전</t>
-  </si>
-  <si>
     <t>พลิกกลับรอบ</t>
   </si>
   <si>
@@ -6491,9 +6491,6 @@
     <t>フェイズマッチに謎の存在が現れた。頭に二つの角を持つ少女が、みんなに賭けを仕掛ける。\nクリを集めて強敵を倒し、すべては空間を再び逆転させるためだった。\n長空を切り裂く銀光が万物を照らす烈日を打ち破ったとき、少女はようやく明悟する。\n彼女がついに手放せなかったのは、過去からの執念であった。\n鎖は壊れ、執念は消え、終了した旅の中で少女は友人に最も真摯なブレスを送った。</t>
   </si>
   <si>
-    <t>페이즈 대결에 신비한 존재가 등장했다. 머리에 뿔이 두 개 달린 소녀가 여럿에게 도전장을 내밀었다.\n도토리를 모으고, 강적을 물리치며, 그 모든 것은 공간을 다시 역전시키기 위한 것이었다.\n하늘을 가르는 은빛이 만물을 비추는 태양을 꿰뚫었을 때, 소녀는 비로소 깨달았다.\n그녀가 끝내 내려놓지 못했던 것은 과거로부터의 집착이었다.\n족쇄는 부수어졌고, 집착은 사라졌다. 여정을 마친 소녀는 친구들에게 가장 진실된 축복을 건넸다.</t>
-  </si>
-  <si>
     <t>การเล่นหมากรุกเฟสได้ต้อนรับผู้มีความลี้ลับ สาวน้อยที่มีเขาสองข้างได้เสนอการพนันแก่ทุกคน \nรวบรวมเมล็ดโอ๊ค พิชิตศัตรูที่แข็งแกร่ง ทุกอย่างเพื่อพลิกผันพื้นที่อีกครั้ง \nเมื่อแสงสีเงินผ่าฟ้าสว่างไสว ทำลายดวงอาทิตย์ที่ส่องแสงเหนือสรรพสิ่ง สาวน้อยจึงตระหนักขึ้นมา \nที่แท้สิ่งที่เธอยังคงไม่อาจปล่อยวางได้ ก็คือความยึดมั่นจากอดีต \nโซ่ตรวนได้แตกสลาย ความยึดมั่นได้ถูกกำจัด เมื่อสาวน้อยจบการเดินทาง เธอได้มอบพรอันบริสุทธิ์ที่สุดให้กับเพื่อนของเธอ</t>
   </si>
   <si>
@@ -6657,13 +6654,19 @@
   </si>
   <si>
     <t>Dù trong tình cảnh tuyệt vọng, cũng đừng từ bỏ hy vọng. Vì từng giây phút đều có thể trở thành khởi đầu để xoay chuyển tình thế.</t>
+  </si>
+  <si>
+    <t>역전의 턴</t>
+  </si>
+  <si>
+    <t>페이즈 체스에 신비한 존재가 등장했다. 머리에 뿔이 두 개 달린 소녀는 여러 사람에게 도전장을 내밀었다.\n도토리를 모으고, 강적을 쓰러뜨리며 공간을 다시 뒤집고자 했다.\n하늘을 가르는 은빛 광선이 만물을 비추는 태양을 꿰뚫었을 때, 소녀는 비로소 깨달았다.\n그녀가 끝내 내려놓지 못한 것은 과거의 집착이었다.\n족쇄는 부서지고, 집착은 사라졌다. 여행을 마친 소녀는 친구들에게 진심 어린 축복을 전했다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6680,6 +6683,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -6705,10 +6714,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6719,9 +6729,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{0F106085-B12D-44EB-A165-CDDDB320CC8E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6937,7 +6951,7 @@
   <dimension ref="A1:S225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7035,34 +7049,34 @@
       <c r="L2" t="s">
         <v>2139</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
+        <v>2205</v>
+      </c>
+      <c r="N2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q2" t="s">
         <v>2140</v>
       </c>
-      <c r="N2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>2141</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>2142</v>
-      </c>
-      <c r="S2" t="s">
-        <v>2143</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B3" t="s">
         <v>2144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2145</v>
       </c>
       <c r="C3" t="s">
         <v>2133</v>
@@ -7074,51 +7088,51 @@
         <v>2134</v>
       </c>
       <c r="F3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="H3" t="s">
         <v>2146</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>2147</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>2148</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" t="s">
         <v>2149</v>
       </c>
-      <c r="K3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" s="4" t="s">
+        <v>2206</v>
+      </c>
+      <c r="N3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q3" t="s">
         <v>2150</v>
       </c>
-      <c r="M3" t="s">
+      <c r="R3" t="s">
         <v>2151</v>
       </c>
-      <c r="N3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>2152</v>
-      </c>
-      <c r="R3" t="s">
-        <v>2153</v>
-      </c>
-      <c r="S3" t="s">
-        <v>2154</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="B4" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="C4" t="s">
         <v>2133</v>
@@ -7130,61 +7144,61 @@
         <v>2134</v>
       </c>
       <c r="F4" t="s">
+        <v>2155</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2156</v>
+      </c>
+      <c r="I4" t="s">
         <v>2157</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>2158</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L4" t="s">
         <v>2159</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" s="4" t="s">
         <v>2160</v>
       </c>
-      <c r="K4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="N4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q4" t="s">
         <v>2161</v>
       </c>
-      <c r="M4" t="s">
+      <c r="R4" t="s">
         <v>2162</v>
       </c>
-      <c r="N4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>2163</v>
-      </c>
-      <c r="R4" t="s">
-        <v>2164</v>
-      </c>
-      <c r="S4" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C6" t="s">
         <v>2166</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2167</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2168</v>
       </c>
       <c r="D6">
         <v>1876</v>
       </c>
       <c r="E6" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="F6" t="s">
         <v>2135</v>
@@ -7193,7 +7207,7 @@
         <v>2109</v>
       </c>
       <c r="I6" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="J6" t="s">
         <v>2107</v>
@@ -7228,58 +7242,58 @@
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="B7" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="C7" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D7">
         <v>1876</v>
       </c>
       <c r="E7" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="F7" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="H7" t="s">
+        <v>2171</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2172</v>
+      </c>
+      <c r="J7" t="s">
         <v>2173</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" t="s">
         <v>2174</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>2175</v>
       </c>
-      <c r="K7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="N7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q7" t="s">
         <v>2176</v>
       </c>
-      <c r="M7" t="s">
+      <c r="R7" t="s">
         <v>2177</v>
       </c>
-      <c r="N7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>2178</v>
-      </c>
-      <c r="R7" t="s">
-        <v>2179</v>
-      </c>
-      <c r="S7" t="s">
-        <v>2180</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11933,19 +11947,19 @@
     </row>
     <row r="88" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="B88" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="C88" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D88">
         <v>1877</v>
       </c>
       <c r="E88" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="F88" t="s">
         <v>2135</v>
@@ -11954,7 +11968,7 @@
         <v>1318</v>
       </c>
       <c r="I88" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="J88" t="s">
         <v>1316</v>
@@ -11989,58 +12003,58 @@
     </row>
     <row r="89" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="B89" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="C89" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D89">
         <v>1877</v>
       </c>
       <c r="E89" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="F89" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="H89" t="s">
+        <v>2184</v>
+      </c>
+      <c r="I89" t="s">
+        <v>2185</v>
+      </c>
+      <c r="J89" t="s">
         <v>2186</v>
       </c>
-      <c r="I89" t="s">
+      <c r="K89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L89" t="s">
         <v>2187</v>
       </c>
-      <c r="J89" t="s">
+      <c r="M89" t="s">
         <v>2188</v>
       </c>
-      <c r="K89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L89" t="s">
+      <c r="N89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q89" t="s">
         <v>2189</v>
       </c>
-      <c r="M89" t="s">
+      <c r="R89" t="s">
         <v>2190</v>
       </c>
-      <c r="N89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q89" t="s">
+      <c r="S89" t="s">
         <v>2191</v>
-      </c>
-      <c r="R89" t="s">
-        <v>2192</v>
-      </c>
-      <c r="S89" t="s">
-        <v>2193</v>
       </c>
     </row>
     <row r="90" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13184,19 +13198,19 @@
     </row>
     <row r="110" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="B110" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="C110" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D110">
         <v>1878</v>
       </c>
       <c r="E110" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="F110" t="s">
         <v>2135</v>
@@ -13205,7 +13219,7 @@
         <v>1127</v>
       </c>
       <c r="I110" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="J110" t="s">
         <v>1125</v>
@@ -13240,58 +13254,58 @@
     </row>
     <row r="111" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="B111" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="C111" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D111">
         <v>1878</v>
       </c>
       <c r="E111" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="F111" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="H111" t="s">
+        <v>2197</v>
+      </c>
+      <c r="I111" t="s">
+        <v>2198</v>
+      </c>
+      <c r="J111" t="s">
         <v>2199</v>
       </c>
-      <c r="I111" t="s">
+      <c r="K111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L111" t="s">
         <v>2200</v>
       </c>
-      <c r="J111" t="s">
+      <c r="M111" t="s">
         <v>2201</v>
       </c>
-      <c r="K111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L111" t="s">
+      <c r="N111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q111" t="s">
         <v>2202</v>
       </c>
-      <c r="M111" t="s">
+      <c r="R111" t="s">
         <v>2203</v>
       </c>
-      <c r="N111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q111" t="s">
+      <c r="S111" t="s">
         <v>2204</v>
-      </c>
-      <c r="R111" t="s">
-        <v>2205</v>
-      </c>
-      <c r="S111" t="s">
-        <v>2206</v>
       </c>
     </row>
     <row r="112" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
